--- a/CONFIG/prtg-autoscheduler-config.xlsx
+++ b/CONFIG/prtg-autoscheduler-config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\set\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\set\Documents\GitHub\prtg-autoscheduler\CONFIG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7106FBC1-C9FF-4E94-B467-ABC64A183EFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C7A9CA-78D5-416A-B9D9-3E6CF26628ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{43D695CF-2A04-4EF3-879C-9E33F61BABF0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{43D695CF-2A04-4EF3-879C-9E33F61BABF0}"/>
   </bookViews>
   <sheets>
     <sheet name="PRTGDEFAULT_SETTING" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="CUSTOM" sheetId="4" r:id="rId4"/>
     <sheet name="REFERENCE" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="43">
   <si>
     <t>Hour</t>
   </si>
@@ -172,8 +172,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,11 +201,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -529,285 +527,284 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="2">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="s">
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="2">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="s">
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="2">
-        <v>0</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="s">
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="2">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="s">
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="2">
-        <v>0</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="s">
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="2">
-        <v>0</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="s">
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="2">
-        <v>0</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="s">
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="2">
-        <v>0</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="s">
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="2">
-        <v>0</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="s">
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="2">
-        <v>0</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="s">
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="2">
-        <v>0</v>
-      </c>
-      <c r="C21" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="s">
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="2">
-        <v>0</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="s">
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="2">
-        <v>0</v>
-      </c>
-      <c r="C23" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="s">
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="2">
-        <v>0</v>
-      </c>
-      <c r="C24" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="s">
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="2">
-        <v>0</v>
-      </c>
-      <c r="C25" s="2">
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
@@ -821,209 +818,208 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="s">
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="s">
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="s">
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="s">
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="s">
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="s">
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="s">
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="s">
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="s">
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="s">
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="s">
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="s">
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="s">
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="s">
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
@@ -1031,76 +1027,75 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464A08ED-D541-48AF-86B1-20BC512AD64B}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="1" width="10.140625" customWidth="1" style="3"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1" style="2"/>
+    <col min="1" max="1" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="0">
+      <c r="B4">
         <v>2</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="0">
+      <c r="B7">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
@@ -1114,212 +1109,211 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.42578125" customWidth="1" style="2"/>
+    <col min="1" max="2" width="11.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="s">
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="s">
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="s">
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="s">
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="s">
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="s">
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="s">
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="s">
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="s">
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="s">
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="s">
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="s">
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="s">
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="s">
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
@@ -1327,667 +1321,666 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E86BCECD-C22B-4492-AFAE-CB496A84C031}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1" style="2"/>
+    <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
         <v>24</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>48</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>72</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>96</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>120</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>144</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
         <v>25</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>49</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>73</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>97</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>121</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>145</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>26</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>50</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>74</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>98</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>122</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>146</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>27</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>51</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>75</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>99</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>123</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>147</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>4</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>28</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>52</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>76</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>100</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>124</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>148</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>5</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>29</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>53</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>77</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>101</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>125</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>149</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>6</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>30</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>54</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>78</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>102</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>126</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>7</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>31</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>55</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>79</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>103</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>127</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="1">
         <v>151</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>8</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>32</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>56</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>80</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>104</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>128</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <v>152</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>9</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>33</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>57</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>81</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>105</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <v>129</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <v>153</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>10</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>34</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>58</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>82</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>106</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="1">
         <v>130</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="1">
         <v>154</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>11</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>35</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>59</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>83</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>107</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="1">
         <v>131</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="1">
         <v>155</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>12</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>36</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>60</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>84</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>108</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="1">
         <v>132</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="1">
         <v>156</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>13</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>37</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>61</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>85</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>109</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="1">
         <v>133</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="1">
         <v>157</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>14</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>38</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>62</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>86</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <v>110</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="1">
         <v>134</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="1">
         <v>158</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>15</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>39</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <v>63</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <v>87</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <v>111</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="1">
         <v>135</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="1">
         <v>159</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>16</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>40</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>64</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>88</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>112</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="1">
         <v>136</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="1">
         <v>160</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>17</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <v>41</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <v>65</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <v>89</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="1">
         <v>113</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="1">
         <v>137</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="1">
         <v>161</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>18</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <v>42</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <v>66</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <v>90</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
         <v>114</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="1">
         <v>138</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="1">
         <v>162</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>19</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>43</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <v>67</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <v>91</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="1">
         <v>115</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="1">
         <v>139</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="1">
         <v>163</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>20</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <v>44</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <v>68</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="1">
         <v>92</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="1">
         <v>116</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="1">
         <v>140</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="1">
         <v>164</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <v>21</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="1">
         <v>45</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="1">
         <v>69</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="1">
         <v>93</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="1">
         <v>117</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="1">
         <v>141</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="1">
         <v>165</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>22</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="1">
         <v>46</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="1">
         <v>70</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="1">
         <v>94</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="1">
         <v>118</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="1">
         <v>142</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="1">
         <v>166</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>23</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="1">
         <v>47</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="1">
         <v>71</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="1">
         <v>95</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="1">
         <v>119</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="1">
         <v>143</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="1">
         <v>167</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/CONFIG/prtg-autoscheduler-config.xlsx
+++ b/CONFIG/prtg-autoscheduler-config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\set\Documents\GitHub\prtg-autoscheduler\CONFIG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C7A9CA-78D5-416A-B9D9-3E6CF26628ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F09134-9440-4AD8-93A8-FB3DA2541585}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{43D695CF-2A04-4EF3-879C-9E33F61BABF0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{43D695CF-2A04-4EF3-879C-9E33F61BABF0}"/>
   </bookViews>
   <sheets>
     <sheet name="PRTGDEFAULT_SETTING" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="39">
   <si>
     <t>Hour</t>
   </si>
@@ -133,18 +133,6 @@
   </si>
   <si>
     <t>24.12.2020</t>
-  </si>
-  <si>
-    <t>25.08.2020</t>
-  </si>
-  <si>
-    <t>28.08.2020</t>
-  </si>
-  <si>
-    <t>29.08.2020</t>
-  </si>
-  <si>
-    <t>30.08.2020</t>
   </si>
   <si>
     <t>Monday</t>
@@ -1025,10 +1013,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464A08ED-D541-48AF-86B1-20BC512AD64B}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A4" sqref="A4:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1059,38 +1047,6 @@
       </c>
       <c r="B3">
         <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1335,25 +1291,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
